--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\GameLab2\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1189,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="47">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L2" s="63">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="M2" s="69">
         <f>L2/K2</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N2" s="58" t="s">
         <v>42</v>
@@ -1233,7 +1233,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="64">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" s="70">
         <f>L3/K2</f>
@@ -1273,7 +1273,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="65">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M4" s="71">
         <f>L4/K2</f>
@@ -1313,7 +1313,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="66">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M5" s="72">
         <f>L5/K2</f>
@@ -1332,28 +1332,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="10"/>
       <c r="L6" s="67">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6" s="73">
         <f>L6/K2</f>
@@ -1393,7 +1393,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="68">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M7" s="74">
         <f>L7/K2</f>
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="97">
         <f t="shared" ref="C8:G8" si="0">SUM(C3:C7)</f>
@@ -1416,33 +1416,33 @@
       </c>
       <c r="D8" s="98">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="98">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="98">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="98">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" s="98">
         <f>SUM(H3:H7)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" s="99">
         <f>SUM(I3:I7)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="10"/>
       <c r="L8" s="53">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M8" s="54">
         <f>L8/K2</f>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="M10" s="42">
         <f>SUM(M2:M9)</f>
-        <v>7</v>
+        <v>6.8333333333333339</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
   <si>
     <t>Maandag</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Michiel</t>
+  </si>
+  <si>
+    <t>Robin's trein vol, wel aanwezig gezet.</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1151,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1419,9 @@
       <c r="I7" s="125">
         <v>6</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,15 +1219,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.9</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1263,7 +1263,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
@@ -1303,7 +1303,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1343,7 +1343,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
@@ -1383,7 +1383,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.95</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.7500000000000009</v>
+        <v>6.458333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1522,19 +1522,19 @@
       </c>
       <c r="B11" s="79"/>
       <c r="C11" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="48">
         <v>0</v>
@@ -1682,27 +1682,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="91">
         <f>SUM(H11:H15)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,11 +1425,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.79166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.458333333333333</v>
+        <v>6.583333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="49">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H16" s="91">
         <f>SUM(H11:H15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="91">
         <f>SUM(I11:I15)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,11 +1263,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.583333333333333</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="48">
         <v>4</v>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\GitHub\Gamelab 2.0\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -862,6 +862,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,23 +1156,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1494,7 +1500,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1516,27 +1522,27 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="79"/>
-      <c r="C11" s="47">
+      <c r="C11" s="131">
         <v>4</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="132">
         <v>2</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="132">
         <v>4</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="132">
         <v>4</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="132">
         <v>4</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="132">
         <v>3</v>
       </c>
       <c r="I11" s="49">
@@ -1545,7 +1551,7 @@
       <c r="J11" s="77"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1584,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1617,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1650,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1730,7 +1736,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1751,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1780,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1809,7 @@
       <c r="J20" s="77"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1832,7 +1838,7 @@
       <c r="J21" s="77"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1867,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1934,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -1937,7 +1943,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1987,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +2016,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2045,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2068,7 +2074,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2103,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2141,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2144,7 +2150,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +2165,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2180,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2195,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2206,7 +2212,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2221,7 +2227,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2242,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2245,7 +2251,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2266,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2295,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2324,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2353,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2411,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2443,7 +2449,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2452,7 +2458,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2473,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2531,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2560,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2583,7 +2589,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +2618,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2656,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2659,7 +2665,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2674,7 +2680,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2709,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2732,7 +2738,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2767,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +2796,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2819,7 +2825,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2863,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2868,7 +2874,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2883,7 +2889,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2918,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2947,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -2970,7 +2976,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3005,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3028,7 +3034,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3072,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3075,7 +3081,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3090,7 +3096,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3125,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3154,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3183,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3212,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3235,7 +3241,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +3279,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3282,7 +3288,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3303,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3332,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3355,7 +3361,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3384,7 +3390,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3413,7 +3419,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3448,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3486,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3489,7 +3495,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3510,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3539,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3562,7 +3568,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3591,7 +3597,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3626,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +3655,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +3693,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3696,7 +3702,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3711,7 +3717,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3746,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3775,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3798,7 +3804,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3833,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3856,7 +3862,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3900,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3903,7 +3909,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -3918,7 +3924,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3939,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +3954,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -3965,7 +3971,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +3986,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4001,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4004,7 +4010,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4019,7 +4025,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4054,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4083,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4106,7 +4112,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4135,7 +4141,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4164,7 +4170,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4202,7 +4208,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4211,7 +4217,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4226,7 +4232,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4261,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4284,7 +4290,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4313,7 +4319,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4348,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4371,7 +4377,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4409,7 +4415,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4418,7 +4424,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4433,7 +4439,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4462,7 +4468,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4497,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4520,7 +4526,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4555,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4584,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4622,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4625,7 +4631,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4640,7 +4646,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4675,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4698,7 +4704,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +4733,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4756,7 +4762,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4785,7 +4791,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +4829,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4834,7 +4840,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4849,7 +4855,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4878,7 +4884,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4907,7 +4913,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -4936,7 +4942,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4965,7 +4971,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -4994,7 +5000,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +5038,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5041,7 +5047,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5056,7 +5062,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5091,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5120,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5143,7 +5149,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5172,7 +5178,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5207,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5245,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5248,7 +5254,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5263,7 +5269,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5292,7 +5298,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5327,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5350,7 +5356,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5385,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5408,7 +5414,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +5452,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5455,7 +5461,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5470,7 +5476,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5499,7 +5505,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5528,7 +5534,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5563,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5586,7 +5592,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5615,7 +5621,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5653,7 +5659,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,11 +1223,11 @@
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1263,11 +1263,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1303,11 +1303,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>1</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1343,11 +1343,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>1</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1383,11 +1383,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>1</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1474,11 +1474,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.5</v>
+        <v>6.9999999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1521,22 +1521,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="79"/>
-      <c r="C11" s="47">
+      <c r="C11" s="119">
         <v>4</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="119">
         <v>2</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="119">
         <v>4</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="119">
         <v>4</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="119">
         <v>4</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="119">
         <v>3</v>
       </c>
       <c r="I11" s="49">
@@ -1551,25 +1551,25 @@
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="48">
         <v>0</v>
       </c>
       <c r="I12" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="77"/>
       <c r="K12" s="10"/>
@@ -1686,23 +1686,23 @@
       </c>
       <c r="C16" s="91">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="91">
         <f>SUM(H11:H15)</f>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="I16" s="91">
         <f>SUM(I11:I15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="78"/>
       <c r="K16" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1219,15 +1219,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1263,11 +1263,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1303,11 +1303,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>1.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1343,11 +1343,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>1.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1383,11 +1383,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>1.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.91666666666666663</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1474,11 +1474,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.83333333333333337</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.9999999999999991</v>
+        <v>6.3928571428571423</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1551,25 +1551,25 @@
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="48">
         <v>0</v>
       </c>
       <c r="I12" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="77"/>
       <c r="K12" s="10"/>
@@ -1682,27 +1682,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H16" s="91">
         <f>SUM(H11:H15)</f>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="I16" s="91">
         <f>SUM(I11:I15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="78"/>
       <c r="K16" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\GitHub\Gamelab 2.0\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -862,12 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1156,23 +1150,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +1393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1500,7 +1494,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1522,27 +1516,27 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="79"/>
-      <c r="C11" s="131">
+      <c r="C11" s="47">
         <v>4</v>
       </c>
-      <c r="D11" s="132">
+      <c r="D11" s="48">
         <v>2</v>
       </c>
-      <c r="E11" s="132">
+      <c r="E11" s="48">
         <v>4</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="48">
         <v>4</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="48">
         <v>4</v>
       </c>
-      <c r="H11" s="132">
+      <c r="H11" s="48">
         <v>3</v>
       </c>
       <c r="I11" s="49">
@@ -1551,7 +1545,7 @@
       <c r="J11" s="77"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1578,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1611,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1644,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1677,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1719,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1736,7 +1730,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1745,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1774,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1803,7 @@
       <c r="J20" s="77"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1832,7 @@
       <c r="J21" s="77"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1861,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1890,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1928,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -1943,7 +1937,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1958,7 +1952,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1981,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2010,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2039,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2074,7 +2068,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2097,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2135,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2150,7 +2144,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2165,7 +2159,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2174,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2195,7 +2189,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2212,7 +2206,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2227,7 +2221,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2236,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2251,7 +2245,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2266,7 +2260,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2289,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2318,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2347,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2376,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2405,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2443,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2458,7 +2452,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2467,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2496,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2525,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2554,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2589,7 +2583,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2612,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2650,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2665,7 +2659,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2680,7 +2674,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +2703,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2738,7 +2732,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2761,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2790,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2819,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2863,7 +2857,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2874,7 +2868,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2889,7 +2883,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2912,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -2947,7 +2941,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +2970,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3005,7 +2999,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3034,7 +3028,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3066,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3081,7 +3075,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3096,7 +3090,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3125,7 +3119,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3154,7 +3148,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3183,7 +3177,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3206,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3235,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3279,7 +3273,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3288,7 +3282,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3303,7 +3297,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3326,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3355,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3390,7 +3384,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3419,7 +3413,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3448,7 +3442,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3486,7 +3480,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3495,7 +3489,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3510,7 +3504,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3533,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3562,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3597,7 +3591,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3626,7 +3620,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3655,7 +3649,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3693,7 +3687,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3702,7 +3696,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3717,7 +3711,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3746,7 +3740,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3775,7 +3769,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +3798,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +3827,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3856,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3900,7 +3894,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3909,7 +3903,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -3924,7 +3918,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3933,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -3954,7 +3948,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -3971,7 +3965,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -3986,7 +3980,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4001,7 +3995,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4010,7 +4004,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4025,7 +4019,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4054,7 +4048,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4077,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4112,7 +4106,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4141,7 +4135,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4164,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4208,7 +4202,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4217,7 +4211,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4232,7 +4226,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4261,7 +4255,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4290,7 +4284,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4319,7 +4313,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4348,7 +4342,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4371,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4415,7 +4409,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4424,7 +4418,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4439,7 +4433,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +4462,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4497,7 +4491,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4526,7 +4520,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +4549,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4584,7 +4578,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4622,7 +4616,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4631,7 +4625,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4646,7 +4640,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4675,7 +4669,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4704,7 +4698,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4733,7 +4727,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4756,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4785,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4829,7 +4823,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4840,7 +4834,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4855,7 +4849,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4878,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4913,7 +4907,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -4942,7 +4936,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +4965,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +4994,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5038,7 +5032,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5047,7 +5041,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5062,7 +5056,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5091,7 +5085,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5120,7 +5114,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +5143,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5178,7 +5172,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5207,7 +5201,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5245,7 +5239,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5254,7 +5248,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5269,7 +5263,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5298,7 +5292,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5327,7 +5321,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5356,7 +5350,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5385,7 +5379,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5414,7 +5408,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5446,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5461,7 +5455,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5476,7 +5470,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5505,7 +5499,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5534,7 +5528,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5563,7 +5557,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5592,7 +5586,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5621,7 +5615,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5659,7 +5653,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\GitHub\Gamelab 2.0\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -862,6 +862,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1151,22 +1160,22 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1219,21 +1228,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.9285714285714286</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1263,17 +1272,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.8928571428571429</v>
+        <v>0.9</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1312,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1313,7 +1322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1352,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
@@ -1353,7 +1362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1383,7 +1392,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
@@ -1393,7 +1402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1429,13 +1438,13 @@
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.7857142857142857</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1474,17 +1483,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1494,7 +1503,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1513,10 +1522,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.3928571428571423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.3666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1545,30 +1554,30 @@
       <c r="J11" s="77"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="79"/>
-      <c r="C12" s="47">
+      <c r="C12" s="131">
         <v>4</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="132">
         <v>3</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="132">
         <v>4</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="132">
         <v>4</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="132">
         <v>4</v>
       </c>
       <c r="H12" s="48">
         <v>0</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="133">
         <v>4</v>
       </c>
       <c r="J12" s="77"/>
@@ -1578,31 +1587,31 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="79"/>
       <c r="C13" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="48">
         <v>0</v>
       </c>
       <c r="I13" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="77"/>
       <c r="K13" s="10"/>
@@ -1611,7 +1620,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1653,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1677,32 +1686,32 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" s="91">
         <f>SUM(H11:H15)</f>
@@ -1710,7 +1719,7 @@
       </c>
       <c r="I16" s="91">
         <f>SUM(I11:I15)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="78"/>
       <c r="K16" s="10"/>
@@ -1719,7 +1728,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1730,7 +1739,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1754,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1783,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1812,7 @@
       <c r="J20" s="77"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1832,7 +1841,7 @@
       <c r="J21" s="77"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1870,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1899,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1937,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -1937,7 +1946,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1961,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1990,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +2019,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2048,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2068,7 +2077,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2106,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2144,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2144,7 +2153,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +2168,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2183,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2198,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2206,7 +2215,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2221,7 +2230,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2245,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2245,7 +2254,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2269,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2298,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2327,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2356,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2385,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2414,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2443,7 +2452,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2452,7 +2461,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2476,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2505,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2534,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2563,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2583,7 +2592,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +2621,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2659,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2659,7 +2668,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2674,7 +2683,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2712,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2732,7 +2741,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2770,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +2799,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2819,7 +2828,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2866,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2868,7 +2877,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2883,7 +2892,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2921,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2950,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -2970,7 +2979,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3008,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3028,7 +3037,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3075,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3075,7 +3084,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3090,7 +3099,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3128,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3157,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3186,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3215,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3235,7 +3244,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +3282,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3282,7 +3291,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3306,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3335,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3355,7 +3364,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3384,7 +3393,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3413,7 +3422,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3451,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3489,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3489,7 +3498,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3513,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3542,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3562,7 +3571,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3591,7 +3600,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3629,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +3658,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +3696,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3696,7 +3705,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3711,7 +3720,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3749,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3778,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3798,7 +3807,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3836,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3856,7 +3865,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3903,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3903,7 +3912,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -3918,7 +3927,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3942,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +3957,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -3965,7 +3974,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +3989,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4004,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4004,7 +4013,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4019,7 +4028,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4057,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4086,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4106,7 +4115,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4135,7 +4144,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4164,7 +4173,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4202,7 +4211,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4211,7 +4220,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4226,7 +4235,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4264,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4284,7 +4293,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4313,7 +4322,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4351,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4371,7 +4380,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4409,7 +4418,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4418,7 +4427,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4433,7 +4442,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4462,7 +4471,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4500,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4520,7 +4529,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4558,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4587,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4625,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4625,7 +4634,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4640,7 +4649,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4678,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4698,7 +4707,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +4736,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4756,7 +4765,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4785,7 +4794,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +4832,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4834,7 +4843,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4849,7 +4858,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4878,7 +4887,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4907,7 +4916,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -4936,7 +4945,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4965,7 +4974,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -4994,7 +5003,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +5041,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5041,7 +5050,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5056,7 +5065,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5094,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5123,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5143,7 +5152,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5172,7 +5181,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5210,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5248,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5248,7 +5257,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5263,7 +5272,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5292,7 +5301,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5330,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5350,7 +5359,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5388,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5408,7 +5417,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +5455,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5455,7 +5464,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5470,7 +5479,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5499,7 +5508,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5528,7 +5537,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5566,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5586,7 +5595,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5615,7 +5624,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5653,7 +5662,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I13" activeCellId="1" sqref="C13:G13 I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,25 +1592,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="79"/>
-      <c r="C13" s="47">
+      <c r="C13" s="131">
         <v>2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="132">
         <v>2</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="132">
         <v>2</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="132">
         <v>2</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="132">
         <v>2</v>
       </c>
       <c r="H13" s="48">
         <v>0</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="133">
         <v>2</v>
       </c>
       <c r="J13" s="77"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\GitHub\Gamelab 2.0\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\GameLab2\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
   <si>
     <t>Maandag</t>
   </si>
@@ -175,11 +175,23 @@
   <si>
     <t>Robin's trein vol, wel aanwezig gezet.</t>
   </si>
+  <si>
+    <t>Zinedine Ziek naar huis 2 uur afwezig</t>
+  </si>
+  <si>
+    <t>Sam Ziek</t>
+  </si>
+  <si>
+    <t>Rief Verslapen</t>
+  </si>
+  <si>
+    <t>Sam Ziek, Rief thuissituatie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +542,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -871,6 +883,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,22 +1175,22 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" activeCellId="1" sqref="C13:G13 I13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1228,21 +1243,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.93333333333333335</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1272,17 +1287,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.9</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1327,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1322,7 +1337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1352,17 +1367,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>1</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1388,11 +1403,13 @@
       <c r="I6" s="130">
         <v>2</v>
       </c>
-      <c r="J6" s="129"/>
+      <c r="J6" s="129" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
@@ -1402,7 +1419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1438,13 +1455,13 @@
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.73333333333333328</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1483,17 +1500,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.8</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1503,7 +1520,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1522,10 +1539,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.3666666666666671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.948717948717948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1551,10 +1568,12 @@
       <c r="I11" s="49">
         <v>0</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="77" t="s">
+        <v>50</v>
+      </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1580,14 +1599,16 @@
       <c r="I12" s="133">
         <v>4</v>
       </c>
-      <c r="J12" s="77"/>
+      <c r="J12" s="77" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="118" t="s">
         <v>36</v>
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1613,47 +1634,51 @@
       <c r="I13" s="133">
         <v>2</v>
       </c>
-      <c r="J13" s="77"/>
+      <c r="J13" s="77" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="121" t="s">
         <v>37</v>
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="79"/>
-      <c r="C14" s="47">
-        <v>0</v>
-      </c>
-      <c r="D14" s="48">
-        <v>0</v>
-      </c>
-      <c r="E14" s="48">
-        <v>0</v>
-      </c>
-      <c r="F14" s="48">
-        <v>0</v>
-      </c>
-      <c r="G14" s="48">
-        <v>0</v>
+      <c r="C14" s="131">
+        <v>1</v>
+      </c>
+      <c r="D14" s="132">
+        <v>1</v>
+      </c>
+      <c r="E14" s="132">
+        <v>1</v>
+      </c>
+      <c r="F14" s="132">
+        <v>1</v>
+      </c>
+      <c r="G14" s="132">
+        <v>1</v>
       </c>
       <c r="H14" s="48">
         <v>0</v>
       </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="77"/>
+      <c r="I14" s="134">
+        <v>1</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>51</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="122" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1662,56 +1687,58 @@
         <v>0</v>
       </c>
       <c r="D15" s="106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15" s="106">
         <v>0</v>
       </c>
       <c r="I15" s="107">
-        <v>0</v>
-      </c>
-      <c r="J15" s="77"/>
+        <v>7</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>53</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="123" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="41">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H16" s="91">
         <f>SUM(H11:H15)</f>
@@ -1719,7 +1746,7 @@
       </c>
       <c r="I16" s="91">
         <f>SUM(I11:I15)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J16" s="78"/>
       <c r="K16" s="10"/>
@@ -1728,7 +1755,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1739,7 +1766,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1781,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1810,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +1839,7 @@
       <c r="J20" s="77"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1868,7 @@
       <c r="J21" s="77"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +1897,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1926,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1964,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -1946,7 +1973,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +1988,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2017,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2046,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2075,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2104,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2106,7 +2133,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2171,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2153,7 +2180,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2195,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2210,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2225,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2215,7 +2242,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2257,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2245,7 +2272,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2254,7 +2281,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2269,7 +2296,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2325,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2354,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2383,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2412,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +2441,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2452,7 +2479,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2461,7 +2488,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2476,7 +2503,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2532,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2534,7 +2561,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2590,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2592,7 +2619,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2648,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2686,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2668,7 +2695,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2710,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2712,7 +2739,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2768,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2797,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2799,7 +2826,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2855,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2866,7 +2893,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2877,7 +2904,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2892,7 +2919,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2948,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -2950,7 +2977,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -2979,7 +3006,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +3035,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3064,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3102,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3084,7 +3111,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3099,7 +3126,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3155,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3184,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3186,7 +3213,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3215,7 +3242,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3244,7 +3271,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3282,7 +3309,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3291,7 +3318,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3306,7 +3333,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3362,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +3391,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3420,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3422,7 +3449,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3478,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3489,7 +3516,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3498,7 +3525,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +3540,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +3569,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3598,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3600,7 +3627,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3629,7 +3656,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3658,7 +3685,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3696,7 +3723,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3705,7 +3732,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3747,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3776,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3805,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3807,7 +3834,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3836,7 +3863,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3865,7 +3892,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3903,7 +3930,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3912,7 +3939,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -3927,7 +3954,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3969,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -3957,7 +3984,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -3974,7 +4001,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -3989,7 +4016,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4004,7 +4031,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4013,7 +4040,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4028,7 +4055,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4057,7 +4084,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4086,7 +4113,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4115,7 +4142,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4144,7 +4171,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4173,7 +4200,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +4238,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4220,7 +4247,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4235,7 +4262,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4264,7 +4291,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4293,7 +4320,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4322,7 +4349,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4351,7 +4378,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4380,7 +4407,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4445,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4427,7 +4454,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4442,7 +4469,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4498,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4500,7 +4527,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4529,7 +4556,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4558,7 +4585,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +4614,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4625,7 +4652,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4634,7 +4661,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4649,7 +4676,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4678,7 +4705,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4707,7 +4734,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4736,7 +4763,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4765,7 +4792,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4821,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4832,7 +4859,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4843,7 +4870,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4858,7 +4885,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4887,7 +4914,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4916,7 +4943,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -4945,7 +4972,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4974,7 +5001,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5003,7 +5030,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5041,7 +5068,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5050,7 +5077,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5065,7 +5092,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5094,7 +5121,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5123,7 +5150,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5152,7 +5179,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5181,7 +5208,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5210,7 +5237,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5275,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5257,7 +5284,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5272,7 +5299,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5301,7 +5328,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5330,7 +5357,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5386,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5388,7 +5415,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5417,7 +5444,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5455,7 +5482,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5464,7 +5491,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5479,7 +5506,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5508,7 +5535,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5537,7 +5564,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5566,7 +5593,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5595,7 +5622,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5624,7 +5651,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5662,7 +5689,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -886,6 +886,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1175,7 +1181,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H12" sqref="H12:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,22 +1692,22 @@
       <c r="C15" s="108">
         <v>0</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="135">
         <v>8</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="135">
         <v>8</v>
       </c>
-      <c r="F15" s="106">
+      <c r="F15" s="135">
         <v>4</v>
       </c>
-      <c r="G15" s="106">
+      <c r="G15" s="135">
         <v>8</v>
       </c>
       <c r="H15" s="106">
         <v>0</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="136">
         <v>7</v>
       </c>
       <c r="J15" s="77" t="s">

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -892,6 +892,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1184,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1252,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.74358974358974361</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1293,11 +1296,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.92307692307692313</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1333,7 +1336,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1373,11 +1376,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.89743589743589747</v>
+        <v>0.90697674418604646</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1415,7 +1418,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.5641025641025641</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1510,7 +1513,7 @@
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.82051282051282048</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1545,7 +1548,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.948717948717948</v>
+        <v>5.7674418604651159</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1795,17 +1798,17 @@
       <c r="C19" s="47">
         <v>0</v>
       </c>
-      <c r="D19" s="48">
-        <v>0</v>
-      </c>
-      <c r="E19" s="48">
-        <v>0</v>
-      </c>
-      <c r="F19" s="48">
-        <v>0</v>
-      </c>
-      <c r="G19" s="48">
-        <v>0</v>
+      <c r="D19" s="132">
+        <v>4</v>
+      </c>
+      <c r="E19" s="132">
+        <v>4</v>
+      </c>
+      <c r="F19" s="137">
+        <v>4</v>
+      </c>
+      <c r="G19" s="132">
+        <v>4</v>
       </c>
       <c r="H19" s="48">
         <v>0</v>
@@ -1937,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="90">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
@@ -1945,19 +1948,19 @@
       </c>
       <c r="D24" s="91">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="91">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="91">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="91">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="91">
         <f>SUM(H19:H23)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -892,9 +892,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,7 +1801,7 @@
       <c r="E19" s="132">
         <v>4</v>
       </c>
-      <c r="F19" s="137">
+      <c r="F19" s="132">
         <v>4</v>
       </c>
       <c r="G19" s="132">

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="56">
   <si>
     <t>Maandag</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Sam Ziek, Rief thuissituatie</t>
+  </si>
+  <si>
+    <t>Sam Ziek, Rief thuissituatie, Michiel laptop</t>
+  </si>
+  <si>
+    <t>Marc Ziek</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,15 +1255,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.67441860465116277</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1293,11 +1299,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.93023255813953487</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1333,7 +1339,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1373,11 +1379,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.90697674418604646</v>
+        <v>0.91489361702127658</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1419,7 +1425,7 @@
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>1</v>
+        <v>0.91489361702127658</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1461,7 +1467,7 @@
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.51162790697674421</v>
+        <v>0.46808510638297873</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1506,11 +1512,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.7441860465116279</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.7674418604651159</v>
+        <v>5.702127659574467</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1813,7 +1819,9 @@
       <c r="I19" s="49">
         <v>0</v>
       </c>
-      <c r="J19" s="77"/>
+      <c r="J19" s="77" t="s">
+        <v>54</v>
+      </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1821,17 +1829,17 @@
         <v>1</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="47">
-        <v>0</v>
-      </c>
-      <c r="D20" s="48">
-        <v>0</v>
-      </c>
-      <c r="E20" s="48">
-        <v>0</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0</v>
+      <c r="C20" s="131">
+        <v>4</v>
+      </c>
+      <c r="D20" s="132">
+        <v>4</v>
+      </c>
+      <c r="E20" s="132">
+        <v>4</v>
+      </c>
+      <c r="F20" s="132">
+        <v>4</v>
       </c>
       <c r="G20" s="48">
         <v>0</v>
@@ -1839,10 +1847,12 @@
       <c r="H20" s="48">
         <v>0</v>
       </c>
-      <c r="I20" s="49">
-        <v>0</v>
-      </c>
-      <c r="J20" s="77"/>
+      <c r="I20" s="133">
+        <v>4</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>55</v>
+      </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1937,23 +1947,23 @@
         <v>5</v>
       </c>
       <c r="B24" s="45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" s="90">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="91">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24" s="91">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" s="91">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="91">
         <f t="shared" si="2"/>
@@ -1965,7 +1975,7 @@
       </c>
       <c r="I24" s="91">
         <f>SUM(I19:I23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\GameLab2\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Desktop\GameLab2\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t>Maandag</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Marc Ziek</t>
+  </si>
+  <si>
+    <t>Rief, Marc ziek. Carlo en Michiel wat later</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1258,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
@@ -1263,7 +1266,7 @@
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.7021276595744681</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1299,11 +1302,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.93617021276595747</v>
+        <v>0.94339622641509435</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1339,7 +1342,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1379,11 +1382,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.91489361702127658</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1425,7 +1428,7 @@
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.91489361702127658</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1463,11 +1466,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.46808510638297873</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1512,11 +1515,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.76595744680851063</v>
+        <v>0.77358490566037741</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.702127659574467</v>
+        <v>5.584905660377359</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1863,25 +1866,27 @@
       <c r="C21" s="47">
         <v>0</v>
       </c>
-      <c r="D21" s="48">
-        <v>0</v>
-      </c>
-      <c r="E21" s="48">
-        <v>0</v>
-      </c>
-      <c r="F21" s="48">
-        <v>0</v>
+      <c r="D21" s="132">
+        <v>6</v>
+      </c>
+      <c r="E21" s="132">
+        <v>6</v>
+      </c>
+      <c r="F21" s="132">
+        <v>5</v>
       </c>
       <c r="G21" s="48">
         <v>0</v>
       </c>
-      <c r="H21" s="48">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="77"/>
+      <c r="H21" s="132">
+        <v>6</v>
+      </c>
+      <c r="I21" s="133">
+        <v>5</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>56</v>
+      </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1947,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="45">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="90">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
@@ -1955,15 +1960,15 @@
       </c>
       <c r="D24" s="91">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E24" s="91">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F24" s="91">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G24" s="91">
         <f t="shared" si="2"/>
@@ -1971,11 +1976,11 @@
       </c>
       <c r="H24" s="91">
         <f>SUM(H19:H23)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="91">
         <f>SUM(I19:I23)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="58">
   <si>
     <t>Maandag</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Rief, Marc ziek. Carlo en Michiel wat later</t>
+  </si>
+  <si>
+    <t>Rief ziek</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1261,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
@@ -1266,7 +1269,7 @@
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.62264150943396224</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1302,11 +1305,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.94339622641509435</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1342,7 +1345,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1382,11 +1385,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.90566037735849059</v>
+        <v>0.90740740740740744</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1424,11 +1427,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.81132075471698117</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1466,11 +1469,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.52830188679245282</v>
+        <v>0.53703703703703709</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1515,11 +1518,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.77358490566037741</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.584905660377359</v>
+        <v>5.5925925925925926</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1897,25 +1900,27 @@
       <c r="C22" s="47">
         <v>0</v>
       </c>
-      <c r="D22" s="48">
-        <v>0</v>
-      </c>
-      <c r="E22" s="48">
-        <v>0</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0</v>
-      </c>
-      <c r="G22" s="48">
-        <v>0</v>
-      </c>
-      <c r="H22" s="48">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="77"/>
+      <c r="D22" s="132">
+        <v>1</v>
+      </c>
+      <c r="E22" s="132">
+        <v>1</v>
+      </c>
+      <c r="F22" s="132">
+        <v>1</v>
+      </c>
+      <c r="G22" s="132">
+        <v>1</v>
+      </c>
+      <c r="H22" s="132">
+        <v>1</v>
+      </c>
+      <c r="I22" s="133">
+        <v>1</v>
+      </c>
+      <c r="J22" s="77" t="s">
+        <v>57</v>
+      </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1952,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="90">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
@@ -1960,27 +1965,27 @@
       </c>
       <c r="D24" s="91">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="91">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="91">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="91">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="91">
         <f>SUM(H19:H23)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="91">
         <f>SUM(I19:I23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Desktop\GameLab2\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,15 +1261,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.61111111111111116</v>
+        <v>0.59677419354838712</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1305,11 +1305,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.94444444444444442</v>
+        <v>0.95161290322580649</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1385,11 +1385,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.90740740740740744</v>
+        <v>0.91935483870967738</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1427,11 +1427,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.81481481481481477</v>
+        <v>0.83870967741935487</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1469,11 +1469,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.53703703703703709</v>
+        <v>0.59677419354838712</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1518,11 +1518,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.77777777777777779</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.5925925925925926</v>
+        <v>5.645161290322581</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1932,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="D23" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" s="90">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
@@ -1965,27 +1965,27 @@
       </c>
       <c r="D24" s="91">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" s="91">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" s="91">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G24" s="91">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H24" s="91">
         <f>SUM(H19:H23)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I24" s="91">
         <f>SUM(I19:I23)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
@@ -2020,22 +2020,22 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="49">
         <v>0</v>
@@ -2164,31 +2164,31 @@
         <v>5</v>
       </c>
       <c r="B32" s="45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="91">
         <f>SUM(H27:H31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="91">
         <f>SUM(I27:I31)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,15 +1261,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.59677419354838712</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1305,11 +1305,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.95161290322580649</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1385,11 +1385,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.91935483870967738</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1427,11 +1427,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.83870967741935487</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1469,11 +1469,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.59677419354838712</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1518,11 +1518,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.74193548387096775</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.645161290322581</v>
+        <v>5.8333333333333339</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2049,25 +2049,25 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
@@ -2078,25 +2078,25 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" s="48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F29" s="48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29" s="48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" s="48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
@@ -2164,35 +2164,35 @@
         <v>5</v>
       </c>
       <c r="B32" s="45">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D32" s="91">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E32" s="91">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F32" s="91">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G32" s="91">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H32" s="91">
         <f>SUM(H27:H31)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I32" s="91">
         <f>SUM(I27:I31)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,15 +1261,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.65277777777777779</v>
+        <v>0.65753424657534243</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1305,11 +1305,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.95833333333333337</v>
+        <v>0.95890410958904104</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1385,11 +1385,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.93055555555555558</v>
+        <v>0.93150684931506844</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1427,11 +1427,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.86111111111111116</v>
+        <v>0.86301369863013699</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1469,11 +1469,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.65277777777777779</v>
+        <v>0.65753424657534243</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1518,11 +1518,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.77777777777777779</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8333333333333339</v>
+        <v>5.8493150684931505</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2107,25 +2107,25 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
@@ -2164,35 +2164,35 @@
         <v>5</v>
       </c>
       <c r="B32" s="45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="91">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="91">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="91">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="91">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="91">
         <f>SUM(H27:H31)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="91">
         <f>SUM(I27:I31)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,15 +1261,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.65753424657534243</v>
+        <v>0.67532467532467533</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1305,11 +1305,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.95890410958904104</v>
+        <v>0.96103896103896103</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
@@ -1385,11 +1385,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.93150684931506844</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1427,11 +1427,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.86301369863013699</v>
+        <v>0.87012987012987009</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1469,11 +1469,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.65753424657534243</v>
+        <v>0.67532467532467533</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.78082191780821919</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8493150684931505</v>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="107">
         <v>0</v>
@@ -2164,31 +2164,31 @@
         <v>5</v>
       </c>
       <c r="B32" s="45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32" s="91">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32" s="91">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F32" s="91">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G32" s="91">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H32" s="91">
         <f>SUM(H27:H31)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I32" s="91">
         <f>SUM(I27:I31)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,11 +1518,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.74025974025974028</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8571428571428568</v>
+        <v>5.8961038961038952</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2154,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="I32" s="91">
         <f>SUM(I27:I31)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Desktop\GameLab2\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -904,6 +904,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1192,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,15 +1264,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.67532467532467533</v>
+        <v>0.57471264367816088</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1305,11 +1308,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.96103896103896103</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1345,11 +1348,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>1</v>
+        <v>0.95402298850574707</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1385,11 +1388,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.93506493506493504</v>
+        <v>0.94252873563218387</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1427,11 +1430,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.87012987012987009</v>
+        <v>0.88505747126436785</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1469,11 +1472,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.67532467532467533</v>
+        <v>0.71264367816091956</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1518,11 +1521,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.77922077922077926</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1557,7 +1560,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8961038961038952</v>
+        <v>5.7931034482758621</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2019,25 +2022,25 @@
         <v>0</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="47">
-        <v>4</v>
-      </c>
-      <c r="D27" s="48">
-        <v>4</v>
-      </c>
-      <c r="E27" s="48">
-        <v>4</v>
-      </c>
-      <c r="F27" s="48">
-        <v>4</v>
-      </c>
-      <c r="G27" s="48">
-        <v>4</v>
-      </c>
-      <c r="H27" s="48">
-        <v>4</v>
-      </c>
-      <c r="I27" s="49">
+      <c r="C27" s="131">
+        <v>4</v>
+      </c>
+      <c r="D27" s="132">
+        <v>4</v>
+      </c>
+      <c r="E27" s="132">
+        <v>4</v>
+      </c>
+      <c r="F27" s="132">
+        <v>4</v>
+      </c>
+      <c r="G27" s="132">
+        <v>4</v>
+      </c>
+      <c r="H27" s="132">
+        <v>4</v>
+      </c>
+      <c r="I27" s="133">
         <v>0</v>
       </c>
       <c r="J27" s="5"/>
@@ -2048,25 +2051,25 @@
         <v>1</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="47">
-        <v>4</v>
-      </c>
-      <c r="D28" s="48">
-        <v>4</v>
-      </c>
-      <c r="E28" s="48">
-        <v>4</v>
-      </c>
-      <c r="F28" s="48">
-        <v>4</v>
-      </c>
-      <c r="G28" s="48">
-        <v>4</v>
-      </c>
-      <c r="H28" s="48">
-        <v>4</v>
-      </c>
-      <c r="I28" s="49">
+      <c r="C28" s="131">
+        <v>4</v>
+      </c>
+      <c r="D28" s="132">
+        <v>4</v>
+      </c>
+      <c r="E28" s="132">
+        <v>4</v>
+      </c>
+      <c r="F28" s="132">
+        <v>4</v>
+      </c>
+      <c r="G28" s="132">
+        <v>4</v>
+      </c>
+      <c r="H28" s="132">
+        <v>4</v>
+      </c>
+      <c r="I28" s="133">
         <v>4</v>
       </c>
       <c r="J28" s="5"/>
@@ -2077,25 +2080,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="47">
+      <c r="C29" s="131">
         <v>6</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="132">
         <v>6</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="132">
         <v>6</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="132">
         <v>6</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="132">
         <v>6</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="132">
         <v>6</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="133">
         <v>6</v>
       </c>
       <c r="J29" s="5"/>
@@ -2106,25 +2109,25 @@
         <v>3</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="47">
+      <c r="C30" s="131">
         <v>1</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="132">
         <v>1</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="132">
         <v>1</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="132">
         <v>1</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="132">
         <v>1</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="132">
         <v>1</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="133">
         <v>1</v>
       </c>
       <c r="J30" s="5"/>
@@ -2135,25 +2138,25 @@
         <v>4</v>
       </c>
       <c r="B31" s="9"/>
-      <c r="C31" s="108">
-        <v>4</v>
-      </c>
-      <c r="D31" s="106">
-        <v>4</v>
-      </c>
-      <c r="E31" s="106">
-        <v>4</v>
-      </c>
-      <c r="F31" s="106">
-        <v>4</v>
-      </c>
-      <c r="G31" s="106">
-        <v>4</v>
-      </c>
-      <c r="H31" s="106">
-        <v>4</v>
-      </c>
-      <c r="I31" s="107">
+      <c r="C31" s="137">
+        <v>2</v>
+      </c>
+      <c r="D31" s="135">
+        <v>4</v>
+      </c>
+      <c r="E31" s="135">
+        <v>4</v>
+      </c>
+      <c r="F31" s="135">
+        <v>4</v>
+      </c>
+      <c r="G31" s="135">
+        <v>4</v>
+      </c>
+      <c r="H31" s="135">
+        <v>4</v>
+      </c>
+      <c r="I31" s="136">
         <v>3</v>
       </c>
       <c r="J31" s="5"/>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="91">
         <f t="shared" si="3"/>
@@ -2330,22 +2333,22 @@
       <c r="C42" s="47">
         <v>0</v>
       </c>
-      <c r="D42" s="48">
-        <v>0</v>
-      </c>
-      <c r="E42" s="48">
-        <v>0</v>
-      </c>
-      <c r="F42" s="48">
-        <v>0</v>
-      </c>
-      <c r="G42" s="48">
-        <v>0</v>
-      </c>
-      <c r="H42" s="48">
-        <v>0</v>
-      </c>
-      <c r="I42" s="49">
+      <c r="D42" s="132">
+        <v>4</v>
+      </c>
+      <c r="E42" s="132">
+        <v>0</v>
+      </c>
+      <c r="F42" s="132">
+        <v>4</v>
+      </c>
+      <c r="G42" s="132">
+        <v>4</v>
+      </c>
+      <c r="H42" s="132">
+        <v>4</v>
+      </c>
+      <c r="I42" s="133">
         <v>0</v>
       </c>
       <c r="J42" s="2"/>
@@ -2359,23 +2362,23 @@
       <c r="C43" s="47">
         <v>0</v>
       </c>
-      <c r="D43" s="48">
-        <v>0</v>
-      </c>
-      <c r="E43" s="48">
-        <v>0</v>
-      </c>
-      <c r="F43" s="48">
-        <v>0</v>
-      </c>
-      <c r="G43" s="48">
-        <v>0</v>
-      </c>
-      <c r="H43" s="48">
-        <v>0</v>
-      </c>
-      <c r="I43" s="49">
-        <v>0</v>
+      <c r="D43" s="132">
+        <v>6</v>
+      </c>
+      <c r="E43" s="132">
+        <v>6</v>
+      </c>
+      <c r="F43" s="132">
+        <v>6</v>
+      </c>
+      <c r="G43" s="132">
+        <v>6</v>
+      </c>
+      <c r="H43" s="132">
+        <v>6</v>
+      </c>
+      <c r="I43" s="133">
+        <v>6</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
@@ -2472,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C47" s="90">
         <f t="shared" ref="C47:G47" si="4">SUM(C42:C46)</f>
@@ -2480,27 +2483,27 @@
       </c>
       <c r="D47" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E47" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F47" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G47" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="91">
         <f>SUM(H42:H46)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="91">
         <f>SUM(I42:I46)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Desktop\GameLab2\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,15 +1264,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.57471264367816088</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1308,11 +1308,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.96551724137931039</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1348,11 +1348,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.95402298850574707</v>
+        <v>0.9550561797752809</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1388,11 +1388,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.94252873563218387</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1430,11 +1430,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.88505747126436785</v>
+        <v>0.88764044943820219</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1472,11 +1472,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.71264367816091956</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1521,11 +1521,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.75862068965517238</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.7931034482758621</v>
+        <v>5.820224719101124</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2389,25 +2389,25 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
@@ -2475,35 +2475,35 @@
         <v>5</v>
       </c>
       <c r="B47" s="41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" s="90">
         <f t="shared" ref="C47:G47" si="4">SUM(C42:C46)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="91">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="91">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" s="91">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="91">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47" s="91">
         <f>SUM(H42:H46)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I47" s="91">
         <f>SUM(I42:I46)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1195,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -1264,15 +1264,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.5842696629213483</v>
+        <v>0.59340659340659341</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1308,11 +1308,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.9662921348314607</v>
+        <v>0.96703296703296704</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1348,11 +1348,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.9550561797752809</v>
+        <v>0.95604395604395609</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1388,11 +1388,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.9438202247191011</v>
+        <v>0.94505494505494503</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1430,11 +1430,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.88764044943820219</v>
+        <v>0.89010989010989006</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1472,11 +1472,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.7191011235955056</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1521,11 +1521,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.7640449438202247</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.820224719101124</v>
+        <v>5.8241758241758248</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2418,25 +2418,25 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
@@ -2475,35 +2475,35 @@
         <v>5</v>
       </c>
       <c r="B47" s="41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47" s="90">
         <f t="shared" ref="C47:G47" si="4">SUM(C42:C46)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" s="91">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H47" s="91">
         <f>SUM(H42:H46)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" s="91">
         <f>SUM(I42:I46)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1195,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.59340659340659341</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1308,11 +1308,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.96703296703296704</v>
+        <v>1.0109890109890109</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1348,11 +1348,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.95604395604395609</v>
+        <v>1</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1388,11 +1388,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.94505494505494503</v>
+        <v>0.98901098901098905</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1430,11 +1430,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.89010989010989006</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1472,11 +1472,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.7142857142857143</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8241758241758248</v>
+        <v>6.0659340659340657</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2447,22 +2447,22 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46" s="107">
         <v>0</v>
@@ -2479,27 +2479,27 @@
       </c>
       <c r="C47" s="90">
         <f t="shared" ref="C47:G47" si="4">SUM(C42:C46)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="91">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E47" s="91">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F47" s="91">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G47" s="91">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H47" s="91">
         <f>SUM(H42:H46)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I47" s="91">
         <f>SUM(I42:I46)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +339,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +566,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -907,6 +919,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,6 +1036,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1041,6 +1088,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1195,23 +1259,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="C50:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1268,17 +1332,17 @@
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.61538461538461542</v>
+        <v>0.65934065934065933</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1308,17 +1372,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>1.0109890109890109</v>
+        <v>1.054945054945055</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1348,17 +1412,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>1</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1388,17 +1452,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.98901098901098905</v>
+        <v>1.0329670329670331</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1430,17 +1494,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.93406593406593408</v>
+        <v>0.97802197802197799</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1472,17 +1536,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.75824175824175821</v>
+        <v>0.80219780219780223</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1541,7 +1605,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1560,10 +1624,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.0659340659340657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.3296703296703294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1658,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1693,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1728,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1699,7 +1763,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1734,7 +1798,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1840,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1787,7 +1851,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1866,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1897,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1864,7 +1928,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1959,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1990,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +2019,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2057,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2002,7 +2066,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2017,7 +2081,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2040,13 +2104,13 @@
       <c r="H27" s="132">
         <v>4</v>
       </c>
-      <c r="I27" s="133">
+      <c r="I27" s="138">
         <v>0</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2139,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2168,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2133,7 +2197,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2226,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2264,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2209,7 +2273,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2288,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2303,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2254,7 +2318,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2271,7 +2335,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2350,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2365,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2310,7 +2374,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2325,7 +2389,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2418,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2383,94 +2447,94 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="47">
+      <c r="C44" s="139">
         <v>2</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="140">
         <v>2</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="140">
         <v>2</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="140">
         <v>2</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="140">
         <v>2</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="140">
         <v>2</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="141">
         <v>2</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="47">
+      <c r="C45" s="131">
         <v>2</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="132">
         <v>2</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="132">
         <v>2</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="132">
         <v>2</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="132">
         <v>2</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="132">
         <v>1</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="133">
         <v>1</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="108">
+      <c r="C46" s="143">
         <v>2</v>
       </c>
-      <c r="D46" s="106">
-        <v>4</v>
-      </c>
-      <c r="E46" s="106">
-        <v>4</v>
-      </c>
-      <c r="F46" s="106">
-        <v>4</v>
-      </c>
-      <c r="G46" s="106">
-        <v>4</v>
-      </c>
-      <c r="H46" s="106">
-        <v>4</v>
-      </c>
-      <c r="I46" s="107">
+      <c r="D46" s="142">
+        <v>4</v>
+      </c>
+      <c r="E46" s="142">
+        <v>4</v>
+      </c>
+      <c r="F46" s="142">
+        <v>4</v>
+      </c>
+      <c r="G46" s="135">
+        <v>4</v>
+      </c>
+      <c r="H46" s="135">
+        <v>4</v>
+      </c>
+      <c r="I46" s="136">
         <v>0</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2572,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2517,7 +2581,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2532,28 +2596,28 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="47">
-        <v>0</v>
-      </c>
-      <c r="D50" s="48">
-        <v>0</v>
-      </c>
-      <c r="E50" s="48">
-        <v>0</v>
-      </c>
-      <c r="F50" s="48">
-        <v>0</v>
-      </c>
-      <c r="G50" s="48">
-        <v>0</v>
-      </c>
-      <c r="H50" s="48">
-        <v>0</v>
+      <c r="C50" s="131">
+        <v>4</v>
+      </c>
+      <c r="D50" s="132">
+        <v>4</v>
+      </c>
+      <c r="E50" s="132">
+        <v>4</v>
+      </c>
+      <c r="F50" s="132">
+        <v>4</v>
+      </c>
+      <c r="G50" s="132">
+        <v>4</v>
+      </c>
+      <c r="H50" s="132">
+        <v>4</v>
       </c>
       <c r="I50" s="49">
         <v>0</v>
@@ -2561,7 +2625,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2590,7 +2654,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2683,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2712,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2741,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2686,27 +2750,27 @@
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:G55" si="5">SUM(C50:C54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" s="91">
         <f>SUM(H50:H54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55" s="92">
         <f>SUM(I50:I54)</f>
@@ -2715,7 +2779,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2724,7 +2788,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2739,7 +2803,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +2832,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2861,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +2890,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +2919,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2948,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2922,7 +2986,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2933,7 +2997,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2948,7 +3012,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +3041,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3006,7 +3070,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3035,7 +3099,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3128,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3093,7 +3157,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +3195,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3140,7 +3204,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3219,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3248,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3277,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +3306,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3271,7 +3335,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3364,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3402,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3347,7 +3411,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3362,7 +3426,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3455,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3420,7 +3484,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3449,7 +3513,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3478,7 +3542,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3507,7 +3571,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3545,7 +3609,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3554,7 +3618,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +3633,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3662,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3691,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3656,7 +3720,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3685,7 +3749,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3778,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +3816,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3761,7 +3825,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3776,7 +3840,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3805,7 +3869,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3834,7 +3898,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3863,7 +3927,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3892,7 +3956,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3921,7 +3985,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3959,7 +4023,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3968,7 +4032,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -3983,7 +4047,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +4062,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -4013,7 +4077,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -4030,7 +4094,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -4045,7 +4109,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4124,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4069,7 +4133,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4084,7 +4148,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4113,7 +4177,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4142,7 +4206,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4171,7 +4235,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4200,7 +4264,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4229,7 +4293,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4267,7 +4331,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4276,7 +4340,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4291,7 +4355,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4384,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4349,7 +4413,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4378,7 +4442,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4407,7 +4471,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4436,7 +4500,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4474,7 +4538,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4483,7 +4547,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4562,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4591,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4620,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4585,7 +4649,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4614,7 +4678,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4707,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4681,7 +4745,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4690,7 +4754,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4705,7 +4769,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4798,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4763,7 +4827,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4792,7 +4856,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4821,7 +4885,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4850,7 +4914,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4888,7 +4952,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4899,7 +4963,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4914,7 +4978,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4943,7 +5007,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4972,7 +5036,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5001,7 +5065,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -5030,7 +5094,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5123,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5097,7 +5161,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5106,7 +5170,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5121,7 +5185,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5150,7 +5214,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +5243,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5208,7 +5272,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5237,7 +5301,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5266,7 +5330,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5304,7 +5368,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5313,7 +5377,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5328,7 +5392,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5357,7 +5421,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5450,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5415,7 +5479,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5444,7 +5508,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5473,7 +5537,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5511,7 +5575,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5520,7 +5584,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5535,7 +5599,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5564,7 +5628,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5593,7 +5657,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5622,7 +5686,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5651,7 +5715,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5680,7 +5744,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5718,7 +5782,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,23 +1036,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1088,23 +1071,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1259,23 +1225,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="C50:H50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1328,21 +1294,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.65934065934065933</v>
+        <v>0.625</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1372,17 +1338,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>1.054945054945055</v>
+        <v>0.97115384615384615</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1412,17 +1378,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>1.043956043956044</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1452,17 +1418,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>1.0329670329670331</v>
+        <v>0.95192307692307687</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1494,17 +1460,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.97802197802197799</v>
+        <v>0.90384615384615385</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1536,17 +1502,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.80219780219780223</v>
+        <v>0.75</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1589,13 +1555,13 @@
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.75824175824175821</v>
+        <v>0.66346153846153844</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1605,7 +1571,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1624,10 +1590,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>6.3296703296703294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.8269230769230775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1624,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1693,7 +1659,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1694,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +1729,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1764,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1806,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1851,7 +1817,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1866,7 +1832,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1863,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1928,7 +1894,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1959,7 +1925,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1956,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2019,7 +1985,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2023,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2066,7 +2032,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2047,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2076,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2139,7 +2105,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2134,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2163,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2192,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2264,7 +2230,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2273,7 +2239,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2254,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2269,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2284,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2301,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2316,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2331,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2374,7 +2340,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2355,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2384,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2447,7 +2413,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2476,7 +2442,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2471,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2534,12 +2500,12 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47" s="90">
         <f t="shared" ref="C47:G47" si="4">SUM(C42:C46)</f>
@@ -2572,7 +2538,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2581,7 +2547,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +2562,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2625,28 +2591,28 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="49">
         <v>0</v>
@@ -2654,28 +2620,28 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" s="49">
         <v>0</v>
@@ -2683,7 +2649,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2678,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2741,36 +2707,36 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:G55" si="5">SUM(C50:C54)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H55" s="91">
         <f>SUM(H50:H54)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I55" s="92">
         <f>SUM(I50:I54)</f>
@@ -2779,7 +2745,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2788,7 +2754,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2803,7 +2769,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2832,7 +2798,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2861,7 +2827,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2890,7 +2856,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +2885,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2914,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2986,7 +2952,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2997,7 +2963,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -3012,7 +2978,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3007,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3070,7 +3036,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3099,7 +3065,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +3094,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3123,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3195,7 +3161,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3204,7 +3170,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3219,7 +3185,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3214,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3243,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3306,7 +3272,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3335,7 +3301,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3364,7 +3330,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3402,7 +3368,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3411,7 +3377,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3426,7 +3392,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3421,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3484,7 +3450,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3513,7 +3479,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3542,7 +3508,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3571,7 +3537,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3609,7 +3575,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3618,7 +3584,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3633,7 +3599,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3628,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3691,7 +3657,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3720,7 +3686,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3749,7 +3715,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3744,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3816,7 +3782,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3825,7 +3791,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3840,7 +3806,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3835,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3898,7 +3864,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3927,7 +3893,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3956,7 +3922,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3985,7 +3951,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +3989,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -4032,7 +3998,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -4047,7 +4013,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -4062,7 +4028,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4043,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -4094,7 +4060,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -4109,7 +4075,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4090,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4133,7 +4099,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4148,7 +4114,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +4143,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4206,7 +4172,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4235,7 +4201,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4264,7 +4230,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4293,7 +4259,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4331,7 +4297,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4340,7 +4306,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4355,7 +4321,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4384,7 +4350,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4413,7 +4379,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4442,7 +4408,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4471,7 +4437,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4500,7 +4466,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4538,7 +4504,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4547,7 +4513,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4562,7 +4528,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +4557,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4620,7 +4586,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4615,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4644,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +4673,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4745,7 +4711,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4754,7 +4720,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4769,7 +4735,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +4764,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4827,7 +4793,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4856,7 +4822,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4885,7 +4851,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4914,7 +4880,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +4918,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4963,7 +4929,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4978,7 +4944,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -5007,7 +4973,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -5036,7 +5002,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5065,7 +5031,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -5094,7 +5060,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5123,7 +5089,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5161,7 +5127,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5170,7 +5136,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5185,7 +5151,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5214,7 +5180,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5243,7 +5209,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5272,7 +5238,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5301,7 +5267,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5330,7 +5296,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5368,7 +5334,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5377,7 +5343,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5392,7 +5358,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5421,7 +5387,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5450,7 +5416,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5479,7 +5445,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5508,7 +5474,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5537,7 +5503,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5575,7 +5541,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5584,7 +5550,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5599,7 +5565,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5628,7 +5594,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5657,7 +5623,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5686,7 +5652,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5715,7 +5681,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5710,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5782,7 +5748,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,15 +1294,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.625</v>
+        <v>0.63207547169811318</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1338,11 +1338,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.97115384615384615</v>
+        <v>0.97169811320754718</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1378,11 +1378,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.96153846153846156</v>
+        <v>0.96226415094339623</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1418,11 +1418,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.95192307692307687</v>
+        <v>0.95283018867924529</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1460,11 +1460,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.90384615384615385</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1502,11 +1502,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.75</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1551,11 +1551,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.66346153846153844</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8269230769230775</v>
+        <v>5.8396226415094334</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2655,25 +2655,25 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
@@ -2712,35 +2712,35 @@
         <v>5</v>
       </c>
       <c r="B55" s="45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:G55" si="5">SUM(C50:C54)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55" s="91">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E55" s="91">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F55" s="91">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H55" s="91">
         <f>SUM(H50:H54)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55" s="92">
         <f>SUM(I50:I54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1294,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.63207547169811318</v>
+        <v>0.60909090909090913</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1338,11 +1338,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.97169811320754718</v>
+        <v>0.98181818181818181</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1378,11 +1378,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.96226415094339623</v>
+        <v>0.96363636363636362</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.95283018867924529</v>
+        <v>0.91818181818181821</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1460,11 +1460,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.90566037735849059</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1502,11 +1502,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.75471698113207553</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1551,11 +1551,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.660377358490566</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8396226415094334</v>
+        <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1633,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="132">
         <v>4</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="D16" s="91">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
@@ -2596,22 +2596,22 @@
         <v>1</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="47">
+      <c r="C51" s="131">
         <v>3</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="132">
         <v>3</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="132">
         <v>3</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="132">
         <v>3</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="132">
         <v>3</v>
       </c>
-      <c r="H51" s="48">
+      <c r="H51" s="132">
         <v>3</v>
       </c>
       <c r="I51" s="49">
@@ -2625,22 +2625,22 @@
         <v>2</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="47">
-        <v>2</v>
-      </c>
-      <c r="D52" s="48">
-        <v>2</v>
-      </c>
-      <c r="E52" s="48">
-        <v>2</v>
-      </c>
-      <c r="F52" s="48">
-        <v>2</v>
-      </c>
-      <c r="G52" s="48">
-        <v>2</v>
-      </c>
-      <c r="H52" s="48">
+      <c r="C52" s="131">
+        <v>2</v>
+      </c>
+      <c r="D52" s="132">
+        <v>2</v>
+      </c>
+      <c r="E52" s="132">
+        <v>2</v>
+      </c>
+      <c r="F52" s="132">
+        <v>2</v>
+      </c>
+      <c r="G52" s="132">
+        <v>2</v>
+      </c>
+      <c r="H52" s="132">
         <v>2</v>
       </c>
       <c r="I52" s="49">
@@ -2654,25 +2654,25 @@
         <v>3</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="47">
-        <v>2</v>
-      </c>
-      <c r="D53" s="48">
-        <v>2</v>
-      </c>
-      <c r="E53" s="48">
-        <v>2</v>
-      </c>
-      <c r="F53" s="48">
-        <v>2</v>
-      </c>
-      <c r="G53" s="48">
-        <v>2</v>
-      </c>
-      <c r="H53" s="48">
-        <v>2</v>
-      </c>
-      <c r="I53" s="49">
+      <c r="C53" s="131">
+        <v>2</v>
+      </c>
+      <c r="D53" s="132">
+        <v>2</v>
+      </c>
+      <c r="E53" s="132">
+        <v>2</v>
+      </c>
+      <c r="F53" s="132">
+        <v>2</v>
+      </c>
+      <c r="G53" s="132">
+        <v>2</v>
+      </c>
+      <c r="H53" s="132">
+        <v>2</v>
+      </c>
+      <c r="I53" s="133">
         <v>1</v>
       </c>
       <c r="J53" s="2"/>
@@ -2686,23 +2686,23 @@
       <c r="C54" s="108">
         <v>0</v>
       </c>
-      <c r="D54" s="106">
-        <v>0</v>
-      </c>
-      <c r="E54" s="106">
-        <v>0</v>
-      </c>
-      <c r="F54" s="106">
-        <v>0</v>
-      </c>
-      <c r="G54" s="106">
-        <v>0</v>
-      </c>
-      <c r="H54" s="106">
-        <v>0</v>
-      </c>
-      <c r="I54" s="107">
-        <v>0</v>
+      <c r="D54" s="135">
+        <v>4</v>
+      </c>
+      <c r="E54" s="135">
+        <v>4</v>
+      </c>
+      <c r="F54" s="135">
+        <v>0</v>
+      </c>
+      <c r="G54" s="135">
+        <v>4</v>
+      </c>
+      <c r="H54" s="135">
+        <v>4</v>
+      </c>
+      <c r="I54" s="136">
+        <v>4</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
@@ -2712,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:G55" si="5">SUM(C50:C54)</f>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="D55" s="91">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E55" s="91">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F55" s="91">
         <f t="shared" si="5"/>
@@ -2732,15 +2732,15 @@
       </c>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H55" s="91">
         <f>SUM(H50:H54)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55" s="92">
         <f>SUM(I50:I54)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
   <si>
     <t>Maandag</t>
   </si>
@@ -198,12 +198,18 @@
   </si>
   <si>
     <t>Rief ziek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naar de Dokter </t>
+  </si>
+  <si>
+    <t>Thuis Werken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -937,6 +943,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1036,6 +1045,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,6 +1097,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1225,23 +1268,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1308,7 +1351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1338,17 +1381,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.98181818181818181</v>
+        <v>1</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1378,17 +1421,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.96363636363636362</v>
+        <v>1</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1418,17 +1461,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.91818181818181821</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1460,17 +1503,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.90909090909090906</v>
+        <v>0.94545454545454544</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1571,7 +1614,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1590,10 +1633,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8181818181818183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.9454545454545462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1667,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +1702,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1737,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1772,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1807,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1849,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1817,7 +1860,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1875,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1906,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +1937,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1925,7 +1968,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1999,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +2028,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2066,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2032,7 +2075,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2090,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2119,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2105,7 +2148,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2177,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2163,7 +2206,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2235,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2273,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2239,7 +2282,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2297,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2312,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2327,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2344,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2359,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +2374,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2340,7 +2383,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2355,7 +2398,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2427,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2456,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2442,7 +2485,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2514,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2543,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2581,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2547,7 +2590,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2605,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2634,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2663,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2692,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2721,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2735,7 @@
       <c r="E54" s="135">
         <v>4</v>
       </c>
-      <c r="F54" s="135">
+      <c r="F54" s="144">
         <v>0</v>
       </c>
       <c r="G54" s="135">
@@ -2704,10 +2747,12 @@
       <c r="I54" s="136">
         <v>4</v>
       </c>
-      <c r="J54" s="3"/>
+      <c r="J54" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2790,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2754,7 +2799,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2769,7 +2814,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2778,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" s="48">
         <v>0</v>
@@ -2795,10 +2840,12 @@
       <c r="I58" s="49">
         <v>0</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +2874,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2903,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2885,7 +2932,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2961,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2927,19 +2974,19 @@
       </c>
       <c r="D63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63" s="91">
         <f>SUM(H58:H62)</f>
@@ -2952,7 +2999,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2963,7 +3010,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2978,7 +3025,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3054,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3083,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3065,7 +3112,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3141,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3123,7 +3170,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3208,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3170,7 +3217,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3185,7 +3232,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3214,7 +3261,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3243,7 +3290,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3272,7 +3319,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3301,7 +3348,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3377,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3415,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3377,7 +3424,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3439,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +3468,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3450,7 +3497,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3479,7 +3526,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3555,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3537,7 +3584,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3622,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3584,7 +3631,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3599,7 +3646,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3675,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3657,7 +3704,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3686,7 +3733,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3715,7 +3762,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3744,7 +3791,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3829,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3791,7 +3838,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3806,7 +3853,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3882,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3911,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3893,7 +3940,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3922,7 +3969,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3951,7 +3998,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3989,7 +4036,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3998,7 +4045,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -4013,7 +4060,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4075,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -4043,7 +4090,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -4060,7 +4107,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4122,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4137,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4099,7 +4146,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4161,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4190,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4172,7 +4219,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4248,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4277,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4259,7 +4306,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4297,7 +4344,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4306,7 +4353,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4321,7 +4368,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4397,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4379,7 +4426,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4408,7 +4455,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4437,7 +4484,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4466,7 +4513,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4504,7 +4551,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4513,7 +4560,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4528,7 +4575,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4604,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4586,7 +4633,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4615,7 +4662,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4644,7 +4691,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4720,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4758,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4720,7 +4767,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +4782,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4811,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4793,7 +4840,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4822,7 +4869,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4851,7 +4898,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +4927,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4918,7 +4965,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4929,7 +4976,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +4991,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +5020,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -5002,7 +5049,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5031,7 +5078,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -5060,7 +5107,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5089,7 +5136,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5127,7 +5174,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5136,7 +5183,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5151,7 +5198,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +5227,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5209,7 +5256,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5285,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5267,7 +5314,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5343,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5334,7 +5381,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5343,7 +5390,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5358,7 +5405,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5434,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5416,7 +5463,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5445,7 +5492,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5474,7 +5521,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5503,7 +5550,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5541,7 +5588,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5550,7 +5597,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5565,7 +5612,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5641,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5623,7 +5670,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5652,7 +5699,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5681,7 +5728,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5757,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5748,7 +5795,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,15 +1294,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.60909090909090913</v>
+        <v>0.61403508771929827</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1338,11 +1338,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.98181818181818181</v>
+        <v>0.98245614035087714</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1378,11 +1378,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.96363636363636362</v>
+        <v>0.96491228070175439</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1418,11 +1418,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.91818181818181821</v>
+        <v>0.92105263157894735</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1460,11 +1460,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.90909090909090906</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1502,11 +1502,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.76363636363636367</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.67272727272727273</v>
+        <v>0.64912280701754388</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8181818181818183</v>
+        <v>5.8157894736842097</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2775,22 +2775,22 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" s="49">
         <v>0</v>
@@ -2919,31 +2919,31 @@
         <v>5</v>
       </c>
       <c r="B63" s="45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" ref="C63:G63" si="6">SUM(C58:C62)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63" s="91">
         <f>SUM(H58:H62)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63" s="92">
         <f>SUM(I58:I62)</f>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Documents\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="58">
   <si>
     <t>Maandag</t>
   </si>
@@ -199,17 +199,11 @@
   <si>
     <t>Rief ziek</t>
   </si>
-  <si>
-    <t xml:space="preserve">Naar de Dokter </t>
-  </si>
-  <si>
-    <t>Thuis Werken</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +566,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -943,9 +937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1045,23 +1036,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1097,23 +1071,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1268,23 +1225,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1381,17 +1338,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.98181818181818181</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1421,17 +1378,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>1</v>
+        <v>0.96363636363636362</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1461,17 +1418,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.95454545454545459</v>
+        <v>0.91818181818181821</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1503,17 +1460,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.94545454545454544</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1614,7 +1571,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1633,10 +1590,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.9454545454545462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1624,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1659,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1694,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1729,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1764,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1806,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1860,7 +1817,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1832,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1863,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1894,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1968,7 +1925,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1999,7 +1956,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +1985,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2023,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2075,7 +2032,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2090,7 +2047,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2076,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2105,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2134,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2206,7 +2163,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2192,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2273,7 +2230,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2282,7 +2239,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2254,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2269,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2284,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2344,7 +2301,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2359,7 +2316,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2331,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2383,7 +2340,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2398,7 +2355,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2384,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2456,7 +2413,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2442,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2514,7 +2471,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2500,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2581,7 +2538,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2590,7 +2547,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2605,7 +2562,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2591,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2620,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2649,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2721,7 +2678,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2692,7 @@
       <c r="E54" s="135">
         <v>4</v>
       </c>
-      <c r="F54" s="144">
+      <c r="F54" s="135">
         <v>0</v>
       </c>
       <c r="G54" s="135">
@@ -2747,12 +2704,10 @@
       <c r="I54" s="136">
         <v>4</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2790,7 +2745,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2799,7 +2754,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +2769,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2823,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F58" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" s="48">
         <v>0</v>
@@ -2840,12 +2795,10 @@
       <c r="I58" s="49">
         <v>0</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2874,7 +2827,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2903,7 +2856,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2932,7 +2885,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2961,7 +2914,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2974,19 +2927,19 @@
       </c>
       <c r="D63" s="91">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="91">
         <f>SUM(H58:H62)</f>
@@ -2999,7 +2952,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -3010,7 +2963,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -3025,7 +2978,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3007,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3083,7 +3036,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3112,7 +3065,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3094,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3123,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3161,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3217,7 +3170,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3185,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3261,7 +3214,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3243,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3319,7 +3272,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3301,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3377,7 +3330,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3415,7 +3368,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3424,7 +3377,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3439,7 +3392,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3421,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3497,7 +3450,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3526,7 +3479,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3508,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3584,7 +3537,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3622,7 +3575,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3631,7 +3584,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3646,7 +3599,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3628,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3657,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3733,7 +3686,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3762,7 +3715,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3791,7 +3744,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3829,7 +3782,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3838,7 +3791,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3853,7 +3806,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3835,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3911,7 +3864,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3940,7 +3893,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3922,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3998,7 +3951,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +3989,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -4045,7 +3998,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -4060,7 +4013,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4028,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -4090,7 +4043,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -4107,7 +4060,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4075,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4090,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4146,7 +4099,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4161,7 +4114,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4143,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4219,7 +4172,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4248,7 +4201,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4277,7 +4230,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4306,7 +4259,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4344,7 +4297,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4353,7 +4306,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4368,7 +4321,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +4350,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4379,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4455,7 +4408,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4484,7 +4437,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4513,7 +4466,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4551,7 +4504,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4560,7 +4513,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4575,7 +4528,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4604,7 +4557,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4633,7 +4586,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4662,7 +4615,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4691,7 +4644,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4673,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4711,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4767,7 +4720,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4782,7 +4735,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +4764,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4793,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4869,7 +4822,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4898,7 +4851,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +4880,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4965,7 +4918,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4976,7 +4929,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4991,7 +4944,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +4973,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -5049,7 +5002,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5078,7 +5031,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5060,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5136,7 +5089,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5174,7 +5127,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5183,7 +5136,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5198,7 +5151,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5227,7 +5180,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5256,7 +5209,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5285,7 +5238,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5314,7 +5267,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5343,7 +5296,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5381,7 +5334,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5390,7 +5343,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5405,7 +5358,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5434,7 +5387,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5463,7 +5416,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5492,7 +5445,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5521,7 +5474,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5550,7 +5503,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5588,7 +5541,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5597,7 +5550,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5612,7 +5565,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5641,7 +5594,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5670,7 +5623,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5699,7 +5652,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5728,7 +5681,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5757,7 +5710,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5795,7 +5748,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,15 +1294,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.61403508771929827</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
@@ -1338,11 +1338,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.98245614035087714</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
@@ -1378,11 +1378,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.96491228070175439</v>
+        <v>0.96610169491525422</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
@@ -1418,11 +1418,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.92105263157894735</v>
+        <v>0.92372881355932202</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
@@ -1460,11 +1460,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.91228070175438591</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
@@ -1502,11 +1502,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.77192982456140347</v>
+        <v>0.71186440677966101</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
@@ -1551,11 +1551,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.64912280701754388</v>
+        <v>0.66101694915254239</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8157894736842097</v>
+        <v>5.7881355932203391</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58" s="49">
         <v>0</v>
@@ -2804,25 +2804,25 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D59" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G59" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" s="48">
         <v>0</v>
       </c>
       <c r="I59" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
@@ -2919,35 +2919,35 @@
         <v>5</v>
       </c>
       <c r="B63" s="45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" ref="C63:G63" si="6">SUM(C58:C62)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H63" s="91">
         <f>SUM(H58:H62)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I63" s="92">
         <f>SUM(I58:I62)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -937,6 +937,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1036,6 +1042,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,6 +1094,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1225,23 +1265,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1308,7 +1348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1338,17 +1378,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>0.98305084745762716</v>
+        <v>1</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1378,17 +1418,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.96610169491525422</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1418,17 +1458,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.92372881355932202</v>
+        <v>0.94067796610169496</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1460,17 +1500,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.9152542372881356</v>
+        <v>0.93220338983050843</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1571,7 +1611,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1590,10 +1630,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.7881355932203391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.8559322033898304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1664,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +1699,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1734,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1769,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1804,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1846,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1817,7 +1857,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1872,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1903,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +1934,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1925,7 +1965,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1996,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +2025,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2063,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2032,7 +2072,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2087,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2116,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2105,7 +2145,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2174,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2163,7 +2203,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2232,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2270,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2239,7 +2279,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2294,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2309,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2324,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2341,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2356,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +2371,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2340,7 +2380,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2355,7 +2395,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2424,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2453,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2442,7 +2482,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2511,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2540,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2578,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2547,7 +2587,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2602,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2631,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2660,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2689,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2718,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2707,7 +2747,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2785,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2754,7 +2794,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2769,24 +2809,24 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="47">
+      <c r="C58" s="131">
         <v>3</v>
       </c>
-      <c r="D58" s="48">
-        <v>4</v>
-      </c>
-      <c r="E58" s="48">
-        <v>4</v>
-      </c>
-      <c r="F58" s="48">
-        <v>4</v>
-      </c>
-      <c r="G58" s="48">
+      <c r="D58" s="132">
+        <v>4</v>
+      </c>
+      <c r="E58" s="132">
+        <v>4</v>
+      </c>
+      <c r="F58" s="132">
+        <v>4</v>
+      </c>
+      <c r="G58" s="132">
         <v>4</v>
       </c>
       <c r="H58" s="48">
@@ -2798,36 +2838,36 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="47">
-        <v>4</v>
-      </c>
-      <c r="D59" s="48">
-        <v>4</v>
-      </c>
-      <c r="E59" s="48">
-        <v>4</v>
-      </c>
-      <c r="F59" s="48">
-        <v>4</v>
-      </c>
-      <c r="G59" s="48">
+      <c r="C59" s="144">
+        <v>4</v>
+      </c>
+      <c r="D59" s="132">
+        <v>4</v>
+      </c>
+      <c r="E59" s="132">
+        <v>4</v>
+      </c>
+      <c r="F59" s="145">
+        <v>4</v>
+      </c>
+      <c r="G59" s="145">
         <v>4</v>
       </c>
       <c r="H59" s="48">
         <v>0</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I59" s="145">
         <v>4</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2836,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="D60" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="48">
         <v>0</v>
@@ -2856,7 +2896,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2885,7 +2925,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2954,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2927,19 +2967,19 @@
       </c>
       <c r="D63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H63" s="91">
         <f>SUM(H58:H62)</f>
@@ -2952,7 +2992,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -2963,7 +3003,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2978,7 +3018,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3047,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3076,7 @@
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3065,7 +3105,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3134,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3123,7 +3163,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3201,7 @@
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3170,7 +3210,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3185,7 +3225,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3214,7 +3254,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3243,7 +3283,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3272,7 +3312,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3301,7 +3341,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3370,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3408,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3377,7 +3417,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3432,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +3461,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3450,7 +3490,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3479,7 +3519,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3548,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3537,7 +3577,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3615,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3584,7 +3624,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3599,7 +3639,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3668,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3657,7 +3697,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3686,7 +3726,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3715,7 +3755,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3744,7 +3784,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3822,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3791,7 +3831,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3806,7 +3846,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3875,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3904,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3893,7 +3933,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3922,7 +3962,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3951,7 +3991,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3989,7 +4029,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -3998,7 +4038,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -4013,7 +4053,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4068,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -4043,7 +4083,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -4060,7 +4100,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4115,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4130,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4099,7 +4139,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4154,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4183,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4172,7 +4212,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4241,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4270,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4259,7 +4299,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4297,7 +4337,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4306,7 +4346,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4321,7 +4361,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4390,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4379,7 +4419,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4408,7 +4448,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4437,7 +4477,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4466,7 +4506,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4504,7 +4544,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4513,7 +4553,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4528,7 +4568,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4597,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4586,7 +4626,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4615,7 +4655,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4644,7 +4684,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4713,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4751,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4720,7 +4760,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +4775,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4804,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4793,7 +4833,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4822,7 +4862,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4851,7 +4891,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +4920,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4918,7 +4958,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4929,7 +4969,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +4984,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +5013,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -5002,7 +5042,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5031,7 +5071,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -5060,7 +5100,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5089,7 +5129,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5127,7 +5167,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5136,7 +5176,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5151,7 +5191,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +5220,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5209,7 +5249,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5278,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5267,7 +5307,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5336,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5334,7 +5374,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5343,7 +5383,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5358,7 +5398,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5427,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5416,7 +5456,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5445,7 +5485,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5474,7 +5514,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5503,7 +5543,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5541,7 +5581,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5550,7 +5590,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5565,7 +5605,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5634,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5623,7 +5663,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5652,7 +5692,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5681,7 +5721,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5750,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5748,7 +5788,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\FPS\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,23 +1042,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1094,23 +1077,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1265,23 +1231,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1334,21 +1300,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="45">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L2" s="61">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M2" s="67">
         <f>L2/K2</f>
-        <v>0.6271186440677966</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1378,17 +1344,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="62">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M3" s="68">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1418,17 +1384,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M4" s="69">
         <f>L4/K2</f>
-        <v>0.98305084745762716</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1458,17 +1424,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="64">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M5" s="70">
         <f>L5/K2</f>
-        <v>0.94067796610169496</v>
+        <v>0.92741935483870963</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1500,17 +1466,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="65">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M6" s="71">
         <f>L6/K2</f>
-        <v>0.93220338983050843</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1542,17 +1508,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="66">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M7" s="72">
         <f>L7/K2</f>
-        <v>0.71186440677966101</v>
+        <v>0.69354838709677424</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1591,17 +1557,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="51">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" s="52">
         <f>L8/K2</f>
-        <v>0.66101694915254239</v>
+        <v>0.63709677419354838</v>
       </c>
       <c r="N8" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1611,7 +1577,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
@@ -1630,10 +1596,10 @@
       </c>
       <c r="M10" s="40">
         <f>SUM(M2:M9)</f>
-        <v>5.8559322033898304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.7258064516129021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1630,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1665,7 @@
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1700,7 @@
       </c>
       <c r="M13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1735,7 @@
       </c>
       <c r="M14" s="126"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +1770,7 @@
       </c>
       <c r="M15" s="127"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1812,7 @@
       </c>
       <c r="M16" s="128"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -1857,7 +1823,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1872,7 +1838,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1869,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1934,7 +1900,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1931,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1962,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +1991,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2063,7 +2029,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2072,7 +2038,7 @@
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2053,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2082,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2111,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2140,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2169,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2232,7 +2198,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2270,7 +2236,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2279,7 +2245,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2260,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2275,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2290,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>2</v>
       </c>
@@ -2341,7 +2307,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2322,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2337,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -2380,7 +2346,7 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2361,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2424,7 +2390,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2453,7 +2419,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2448,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2511,7 +2477,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2540,7 +2506,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2578,7 +2544,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -2587,7 +2553,7 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2602,7 +2568,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2597,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2660,7 +2626,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2689,7 +2655,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2718,7 +2684,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2747,7 +2713,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2785,7 +2751,7 @@
       <c r="J55" s="43"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2794,7 +2760,7 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2775,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2804,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2867,7 +2833,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2862,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2905,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="D61" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="48">
         <v>0</v>
@@ -2925,7 +2891,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2954,12 +2920,12 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="45">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" ref="C63:G63" si="6">SUM(C58:C62)</f>
@@ -2967,15 +2933,15 @@
       </c>
       <c r="D63" s="91">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63" s="91">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
@@ -2992,7 +2958,7 @@
       <c r="J63" s="43"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -3003,7 +2969,7 @@
       <c r="I64" s="109"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -3018,123 +2984,123 @@
       <c r="J65" s="23"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="35"/>
-      <c r="C66" s="47">
-        <v>0</v>
-      </c>
-      <c r="D66" s="48">
-        <v>0</v>
-      </c>
-      <c r="E66" s="48">
-        <v>0</v>
-      </c>
-      <c r="F66" s="48">
-        <v>0</v>
-      </c>
-      <c r="G66" s="48">
-        <v>0</v>
-      </c>
-      <c r="H66" s="48">
-        <v>0</v>
-      </c>
-      <c r="I66" s="49">
+      <c r="C66" s="96">
+        <v>0</v>
+      </c>
+      <c r="D66" s="98">
+        <v>0</v>
+      </c>
+      <c r="E66" s="98">
+        <v>0</v>
+      </c>
+      <c r="F66" s="98">
+        <v>0</v>
+      </c>
+      <c r="G66" s="98">
+        <v>0</v>
+      </c>
+      <c r="H66" s="98">
+        <v>0</v>
+      </c>
+      <c r="I66" s="99">
         <v>0</v>
       </c>
       <c r="J66" s="25"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="35"/>
-      <c r="C67" s="47">
-        <v>0</v>
-      </c>
-      <c r="D67" s="48">
-        <v>0</v>
-      </c>
-      <c r="E67" s="48">
-        <v>0</v>
-      </c>
-      <c r="F67" s="48">
-        <v>0</v>
-      </c>
-      <c r="G67" s="48">
-        <v>0</v>
-      </c>
-      <c r="H67" s="48">
-        <v>0</v>
-      </c>
-      <c r="I67" s="49">
+      <c r="C67" s="96">
+        <v>0</v>
+      </c>
+      <c r="D67" s="98">
+        <v>0</v>
+      </c>
+      <c r="E67" s="98">
+        <v>0</v>
+      </c>
+      <c r="F67" s="98">
+        <v>0</v>
+      </c>
+      <c r="G67" s="98">
+        <v>0</v>
+      </c>
+      <c r="H67" s="98">
+        <v>0</v>
+      </c>
+      <c r="I67" s="99">
         <v>0</v>
       </c>
       <c r="J67" s="25"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="35"/>
-      <c r="C68" s="47">
-        <v>0</v>
-      </c>
-      <c r="D68" s="48">
-        <v>0</v>
-      </c>
-      <c r="E68" s="48">
-        <v>0</v>
-      </c>
-      <c r="F68" s="48">
-        <v>0</v>
-      </c>
-      <c r="G68" s="48">
-        <v>0</v>
-      </c>
-      <c r="H68" s="48">
-        <v>0</v>
-      </c>
-      <c r="I68" s="49">
+      <c r="C68" s="96">
+        <v>0</v>
+      </c>
+      <c r="D68" s="98">
+        <v>0</v>
+      </c>
+      <c r="E68" s="98">
+        <v>0</v>
+      </c>
+      <c r="F68" s="98">
+        <v>0</v>
+      </c>
+      <c r="G68" s="98">
+        <v>0</v>
+      </c>
+      <c r="H68" s="98">
+        <v>0</v>
+      </c>
+      <c r="I68" s="99">
         <v>0</v>
       </c>
       <c r="J68" s="25"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="25"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3163,45 +3129,45 @@
       <c r="J70" s="27"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" s="90">
         <f t="shared" ref="C71:G71" si="7">SUM(C66:C70)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" s="91">
         <f>SUM(H66:H70)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" s="92">
         <f>SUM(I66:I70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -3210,7 +3176,7 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3225,7 +3191,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3220,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3283,7 +3249,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3312,7 +3278,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3341,7 +3307,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3370,7 +3336,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3408,7 +3374,7 @@
       <c r="J79" s="43"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -3417,7 +3383,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +3398,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3461,7 +3427,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3456,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3519,7 +3485,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3514,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3577,7 +3543,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3581,7 @@
       <c r="J87" s="43"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -3624,7 +3590,7 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3639,7 +3605,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3668,7 +3634,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3663,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3726,7 +3692,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3755,7 +3721,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3784,7 +3750,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3822,7 +3788,7 @@
       <c r="J95" s="43"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -3831,7 +3797,7 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3846,7 +3812,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +3841,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3904,7 +3870,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3933,7 +3899,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3962,7 +3928,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3991,7 +3957,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -4029,7 +3995,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -4038,7 +4004,7 @@
       <c r="H104" s="93"/>
       <c r="I104" s="93"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>24</v>
       </c>
@@ -4053,7 +4019,7 @@
       <c r="J105" s="16"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4034,7 @@
       <c r="J106" s="18"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4049,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>2</v>
       </c>
@@ -4100,7 +4066,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="31" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +4081,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4096,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -4139,7 +4105,7 @@
       <c r="H111" s="93"/>
       <c r="I111" s="93"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -4154,7 +4120,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4183,7 +4149,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4212,7 +4178,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4207,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4270,7 +4236,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4299,7 +4265,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4337,7 +4303,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -4346,7 +4312,7 @@
       <c r="H119" s="93"/>
       <c r="I119" s="93"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4361,7 +4327,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4356,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4419,7 +4385,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4448,7 +4414,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4477,7 +4443,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4472,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4544,7 +4510,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -4553,7 +4519,7 @@
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4568,7 +4534,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4563,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4626,7 +4592,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4655,7 +4621,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4684,7 +4650,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4713,7 +4679,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4751,7 +4717,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -4760,7 +4726,7 @@
       <c r="H135" s="93"/>
       <c r="I135" s="93"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4775,7 +4741,7 @@
       <c r="J136" s="23"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +4770,7 @@
       <c r="J137" s="25"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4833,7 +4799,7 @@
       <c r="J138" s="25"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4862,7 +4828,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4891,7 +4857,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4920,7 +4886,7 @@
       <c r="J141" s="27"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4924,7 @@
       <c r="J142" s="115"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -4969,7 +4935,7 @@
       <c r="I143" s="93"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4984,7 +4950,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -5013,7 +4979,7 @@
       <c r="J145" s="25"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -5042,7 +5008,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5071,7 +5037,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -5100,7 +5066,7 @@
       <c r="J148" s="25"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -5129,7 +5095,7 @@
       <c r="J149" s="27"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5133,7 @@
       <c r="J150" s="38"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -5176,7 +5142,7 @@
       <c r="H151" s="93"/>
       <c r="I151" s="93"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5191,7 +5157,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +5186,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5249,7 +5215,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5278,7 +5244,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5307,7 +5273,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5336,7 +5302,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5340,7 @@
       <c r="J158" s="38"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -5383,7 +5349,7 @@
       <c r="H159" s="93"/>
       <c r="I159" s="93"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5398,7 +5364,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5427,7 +5393,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5456,7 +5422,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5485,7 +5451,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5514,7 +5480,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5543,7 +5509,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5581,7 +5547,7 @@
       <c r="J166" s="38"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -5590,7 +5556,7 @@
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5605,7 +5571,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5634,7 +5600,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5663,7 +5629,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5692,7 +5658,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5721,7 +5687,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5750,7 +5716,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5788,7 +5754,7 @@
       <c r="J174" s="38"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>
